--- a/biology/Zoologie/Coniopterygidae/Coniopterygidae.xlsx
+++ b/biology/Zoologie/Coniopterygidae/Coniopterygidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Conioptérygidés (Coniopterygidae) sont une famille d'insectes, de la sous-classe des ptérygotes, infra-classe des néoptères, ordre des névroptères. Cette famille existe au moins depuis le Crétacé (Cénomanien)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Conioptérygidés (Coniopterygidae) sont une famille d'insectes, de la sous-classe des ptérygotes, infra-classe des néoptères, ordre des névroptères. Cette famille existe au moins depuis le Crétacé (Cénomanien).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Environ 460 espèces vivantes sont connues. Ces minuscules insectes peuvent généralement être identifiés au genre à l'aide d'une loupe en fonction de la nervation de leurs ailes, mais pour distinguer les espèces, l'examen des organes génitaux au microscope est généralement nécessaire. 
 L'habitus général des adultes est assez différent de celui des autres insectes neuroptères. En raison de leur petite taille - l'envergure est comprise entre 1,8 et 5 millimètres - et de leurs ailes brunâtres translucides généralement recouvertes d'une poussière blanchâtre d'écailles cireuses, ils peuvent tout d'abord être confondus avec des aleurodes (Aleyrodidae). Mais les aleurodes sont de véritables punaises (Sternorrhyncha), qui n'ont qu'une lointaine parenté avec les neuroptères. Un trait distinctif facilement perceptible qui différencie les aleurodes des Conioptérygidés est que, comme beaucoup d'autres neuroptères, les Conioptérygidés portent leurs ailes presque côte à côte lorsqu'elles sont au repos, alors que les aleurodes les portent presque à plat sur le dos. Il n'y a pas plus de deux nervures sur le champ costal, et peu de nervures croisées en général - ce qui est unique parmi les neuroptères actuels, les acariens n'ont pas réellement la nervation des neuroptères. Certains Coniopterygidae, comme le genre Conwentzia, n'ont que des ailes postérieures vestigiales ; d'autres, comme les femelles Helicoconis, sont totalement dépourvues d'ailes.
@@ -544,9 +558,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (20 février 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (20 février 2016) :
 Aleuropteryginae Enderlein, 1905
 Brucheiserinae Navás, 1927
 Coniopteryginae Burmeister, 1839  
